--- a/cifo_project_v2/cifo_project/log/mp0-8/all.xlsx
+++ b/cifo_project_v2/cifo_project/log/mp0-8/all.xlsx
@@ -369,152 +369,152 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>run_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>run_10</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>run_11</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>run_12</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>run_13</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>run_14</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>run_15</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>run_16</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>run_17</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>run_18</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>run_19</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>run_2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>run_20</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>run_21</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>run_17</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>run_16</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>run_1</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>run_20</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>run_11</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>run_22</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>run_23</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>run_24</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>run_25</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>run_26</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>run_27</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>run_28</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>run_29</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>run_3</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>run_30</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>run_4</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>run_5</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>run_6</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>run_7</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>run_26</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>run_30</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>run_10</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>run_13</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>run_29</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>run_8</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>run_4</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>run_25</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>run_24</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>run_5</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>run_9</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>run_28</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>run_12</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>run_19</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>run_2</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>run_23</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>run_15</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>run_14</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>run_22</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>run_3</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>run_18</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
@@ -545,1179 +545,1179 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3877</v>
+        <v>16.79065506022017</v>
       </c>
       <c r="B2" t="n">
-        <v>2926</v>
+        <v>19.37433169127984</v>
       </c>
       <c r="C2" t="n">
-        <v>3810</v>
+        <v>17.2952576463045</v>
       </c>
       <c r="D2" t="n">
-        <v>3882</v>
+        <v>17.92648033316148</v>
       </c>
       <c r="E2" t="n">
-        <v>3430</v>
+        <v>17.80270745865565</v>
       </c>
       <c r="F2" t="n">
-        <v>4259</v>
+        <v>17.83342304654462</v>
       </c>
       <c r="G2" t="n">
-        <v>3397</v>
+        <v>16.94849480924123</v>
       </c>
       <c r="H2" t="n">
-        <v>3221</v>
+        <v>16.28406818934682</v>
       </c>
       <c r="I2" t="n">
-        <v>3272</v>
+        <v>16.45069993843252</v>
       </c>
       <c r="J2" t="n">
-        <v>3571</v>
+        <v>17.62303636651545</v>
       </c>
       <c r="K2" t="n">
-        <v>3736</v>
+        <v>14.64402095230072</v>
       </c>
       <c r="L2" t="n">
-        <v>3645</v>
+        <v>17.19236010485718</v>
       </c>
       <c r="M2" t="n">
-        <v>3782</v>
+        <v>18.46613400202734</v>
       </c>
       <c r="N2" t="n">
-        <v>3856</v>
+        <v>17.6549062861974</v>
       </c>
       <c r="O2" t="n">
-        <v>3509</v>
+        <v>17.51001583377676</v>
       </c>
       <c r="P2" t="n">
-        <v>3875</v>
+        <v>16.07460432103874</v>
       </c>
       <c r="Q2" t="n">
-        <v>3451</v>
+        <v>17.34878715640376</v>
       </c>
       <c r="R2" t="n">
-        <v>3789</v>
+        <v>15.38424315464844</v>
       </c>
       <c r="S2" t="n">
-        <v>3425</v>
+        <v>16.81130080102964</v>
       </c>
       <c r="T2" t="n">
-        <v>3712</v>
+        <v>16.40877221908195</v>
       </c>
       <c r="U2" t="n">
-        <v>3906</v>
+        <v>17.41603467288667</v>
       </c>
       <c r="V2" t="n">
-        <v>2925</v>
+        <v>17.01512920799784</v>
       </c>
       <c r="W2" t="n">
-        <v>4273</v>
+        <v>19.60171602193713</v>
       </c>
       <c r="X2" t="n">
-        <v>3277</v>
+        <v>15.72079500585231</v>
       </c>
       <c r="Y2" t="n">
-        <v>3221</v>
+        <v>16.48919044102149</v>
       </c>
       <c r="Z2" t="n">
-        <v>3236</v>
+        <v>16.94950996558073</v>
       </c>
       <c r="AA2" t="n">
-        <v>3973</v>
+        <v>16.55111303923034</v>
       </c>
       <c r="AB2" t="n">
-        <v>3320</v>
+        <v>18.29199729686779</v>
       </c>
       <c r="AC2" t="n">
-        <v>4641</v>
+        <v>17.73022579472472</v>
       </c>
       <c r="AD2" t="n">
-        <v>3962</v>
+        <v>16.60700367357406</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>393.2796217954094</v>
+        <v>1.056739650340007</v>
       </c>
       <c r="AG2" t="n">
-        <v>3638.633333333333</v>
+        <v>17.13990048302458</v>
       </c>
       <c r="AH2" t="n">
-        <v>4031.912955128742</v>
+        <v>18.19664013336458</v>
       </c>
       <c r="AI2" t="n">
-        <v>3245.353711537924</v>
+        <v>16.08316083268457</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3960</v>
+        <v>18.05161716902982</v>
       </c>
       <c r="B3" t="n">
-        <v>3236</v>
+        <v>21.13599788244865</v>
       </c>
       <c r="C3" t="n">
-        <v>3966</v>
+        <v>20.72911308657515</v>
       </c>
       <c r="D3" t="n">
-        <v>3958</v>
+        <v>18.19885740718095</v>
       </c>
       <c r="E3" t="n">
-        <v>4150</v>
+        <v>19.10194499981033</v>
       </c>
       <c r="F3" t="n">
-        <v>4371</v>
+        <v>18.23752936586133</v>
       </c>
       <c r="G3" t="n">
-        <v>3669</v>
+        <v>17.5595636225332</v>
       </c>
       <c r="H3" t="n">
-        <v>3410</v>
+        <v>16.76101954451295</v>
       </c>
       <c r="I3" t="n">
-        <v>3575</v>
+        <v>16.95380161163089</v>
       </c>
       <c r="J3" t="n">
-        <v>4162</v>
+        <v>21.33331233047211</v>
       </c>
       <c r="K3" t="n">
-        <v>4299</v>
+        <v>15.79323194931972</v>
       </c>
       <c r="L3" t="n">
-        <v>3993</v>
+        <v>19.62292459477527</v>
       </c>
       <c r="M3" t="n">
-        <v>4142</v>
+        <v>18.46613400202734</v>
       </c>
       <c r="N3" t="n">
-        <v>3943</v>
+        <v>19.62321448484608</v>
       </c>
       <c r="O3" t="n">
-        <v>4384</v>
+        <v>17.51001583377676</v>
       </c>
       <c r="P3" t="n">
-        <v>4000</v>
+        <v>17.91494516207293</v>
       </c>
       <c r="Q3" t="n">
-        <v>3890</v>
+        <v>18.02626683639886</v>
       </c>
       <c r="R3" t="n">
-        <v>4171</v>
+        <v>17.33271235846521</v>
       </c>
       <c r="S3" t="n">
-        <v>4009</v>
+        <v>18.02283432240198</v>
       </c>
       <c r="T3" t="n">
-        <v>4388</v>
+        <v>16.46106085335242</v>
       </c>
       <c r="U3" t="n">
-        <v>4140</v>
+        <v>17.41603467288667</v>
       </c>
       <c r="V3" t="n">
-        <v>3099</v>
+        <v>18.75957751581847</v>
       </c>
       <c r="W3" t="n">
-        <v>4464</v>
+        <v>19.8310187557732</v>
       </c>
       <c r="X3" t="n">
-        <v>3746</v>
+        <v>17.95925441726324</v>
       </c>
       <c r="Y3" t="n">
-        <v>3319</v>
+        <v>17.20240243042485</v>
       </c>
       <c r="Z3" t="n">
-        <v>3577</v>
+        <v>20.49275508149452</v>
       </c>
       <c r="AA3" t="n">
-        <v>4001</v>
+        <v>17.30087602558852</v>
       </c>
       <c r="AB3" t="n">
-        <v>3502</v>
+        <v>18.29199729686779</v>
       </c>
       <c r="AC3" t="n">
-        <v>4674</v>
+        <v>19.38925980335004</v>
       </c>
       <c r="AD3" t="n">
-        <v>3962</v>
+        <v>18.30102619842482</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>381.0125650324982</v>
+        <v>1.377642471925821</v>
       </c>
       <c r="AG3" t="n">
-        <v>3938.666666666667</v>
+        <v>18.39267665384613</v>
       </c>
       <c r="AH3" t="n">
-        <v>4319.679231699165</v>
+        <v>19.77031912577196</v>
       </c>
       <c r="AI3" t="n">
-        <v>3557.654101634168</v>
+        <v>17.01503418192031</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4132</v>
+        <v>18.05161716902982</v>
       </c>
       <c r="B4" t="n">
-        <v>3837</v>
+        <v>22.33223549621301</v>
       </c>
       <c r="C4" t="n">
-        <v>3966</v>
+        <v>21.06461462888261</v>
       </c>
       <c r="D4" t="n">
-        <v>3958</v>
+        <v>19.20925760884925</v>
       </c>
       <c r="E4" t="n">
-        <v>4200</v>
+        <v>19.31850531830228</v>
       </c>
       <c r="F4" t="n">
-        <v>4645</v>
+        <v>18.38846697419952</v>
       </c>
       <c r="G4" t="n">
-        <v>3865</v>
+        <v>17.99420042582793</v>
       </c>
       <c r="H4" t="n">
-        <v>3569</v>
+        <v>16.76101954451295</v>
       </c>
       <c r="I4" t="n">
-        <v>3764</v>
+        <v>18.34583325796495</v>
       </c>
       <c r="J4" t="n">
-        <v>4349</v>
+        <v>22.04785924942968</v>
       </c>
       <c r="K4" t="n">
-        <v>4299</v>
+        <v>16.05541195593788</v>
       </c>
       <c r="L4" t="n">
-        <v>3993</v>
+        <v>19.73946972537179</v>
       </c>
       <c r="M4" t="n">
-        <v>4142</v>
+        <v>19.32997975097145</v>
       </c>
       <c r="N4" t="n">
-        <v>3943</v>
+        <v>19.83599100603496</v>
       </c>
       <c r="O4" t="n">
-        <v>4384</v>
+        <v>17.73855754802257</v>
       </c>
       <c r="P4" t="n">
-        <v>4361</v>
+        <v>18.45555121443692</v>
       </c>
       <c r="Q4" t="n">
-        <v>4596</v>
+        <v>18.03491016699639</v>
       </c>
       <c r="R4" t="n">
-        <v>4447</v>
+        <v>17.33271235846521</v>
       </c>
       <c r="S4" t="n">
-        <v>4625</v>
+        <v>18.02283432240198</v>
       </c>
       <c r="T4" t="n">
-        <v>4571</v>
+        <v>17.1720430321156</v>
       </c>
       <c r="U4" t="n">
-        <v>4203</v>
+        <v>17.41603467288667</v>
       </c>
       <c r="V4" t="n">
-        <v>3343</v>
+        <v>18.75957751581847</v>
       </c>
       <c r="W4" t="n">
-        <v>4653</v>
+        <v>20.79025231091561</v>
       </c>
       <c r="X4" t="n">
-        <v>3779</v>
+        <v>17.95925441726324</v>
       </c>
       <c r="Y4" t="n">
-        <v>3471</v>
+        <v>17.47008566467696</v>
       </c>
       <c r="Z4" t="n">
-        <v>3858</v>
+        <v>20.54018541850262</v>
       </c>
       <c r="AA4" t="n">
-        <v>4125</v>
+        <v>19.41536213727846</v>
       </c>
       <c r="AB4" t="n">
-        <v>3628</v>
+        <v>18.29199729686779</v>
       </c>
       <c r="AC4" t="n">
-        <v>4832</v>
+        <v>19.51772035410186</v>
       </c>
       <c r="AD4" t="n">
-        <v>3962</v>
+        <v>18.88797622859325</v>
       </c>
       <c r="AE4" t="n">
         <v>2</v>
       </c>
       <c r="AF4" t="n">
-        <v>382.1088789890898</v>
+        <v>1.484155072392864</v>
       </c>
       <c r="AG4" t="n">
-        <v>4116.666666666667</v>
+        <v>18.80931722569572</v>
       </c>
       <c r="AH4" t="n">
-        <v>4498.775545655757</v>
+        <v>20.29347229808858</v>
       </c>
       <c r="AI4" t="n">
-        <v>3734.557787677577</v>
+        <v>17.32516215330286</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4181</v>
+        <v>18.24715716474397</v>
       </c>
       <c r="B5" t="n">
-        <v>4093</v>
+        <v>23.35544892246177</v>
       </c>
       <c r="C5" t="n">
-        <v>4112</v>
+        <v>21.25993503320312</v>
       </c>
       <c r="D5" t="n">
-        <v>4295</v>
+        <v>20.45603823993658</v>
       </c>
       <c r="E5" t="n">
-        <v>4245</v>
+        <v>19.31850531830228</v>
       </c>
       <c r="F5" t="n">
-        <v>4645</v>
+        <v>18.3925006495516</v>
       </c>
       <c r="G5" t="n">
-        <v>3865</v>
+        <v>18.19363891986232</v>
       </c>
       <c r="H5" t="n">
-        <v>3722</v>
+        <v>17.26399958152511</v>
       </c>
       <c r="I5" t="n">
-        <v>3874</v>
+        <v>18.40165164814722</v>
       </c>
       <c r="J5" t="n">
-        <v>4349</v>
+        <v>24.60720102776725</v>
       </c>
       <c r="K5" t="n">
-        <v>4299</v>
+        <v>16.58562420547186</v>
       </c>
       <c r="L5" t="n">
-        <v>4177</v>
+        <v>19.73946972537179</v>
       </c>
       <c r="M5" t="n">
-        <v>4288</v>
+        <v>19.83239480031846</v>
       </c>
       <c r="N5" t="n">
-        <v>4026</v>
+        <v>19.87355750127141</v>
       </c>
       <c r="O5" t="n">
-        <v>4472</v>
+        <v>19.46808365225387</v>
       </c>
       <c r="P5" t="n">
-        <v>4361</v>
+        <v>19.81450063494793</v>
       </c>
       <c r="Q5" t="n">
-        <v>5045</v>
+        <v>18.03491016699639</v>
       </c>
       <c r="R5" t="n">
-        <v>4842</v>
+        <v>17.90864269162165</v>
       </c>
       <c r="S5" t="n">
-        <v>4625</v>
+        <v>18.30965311425091</v>
       </c>
       <c r="T5" t="n">
-        <v>4571</v>
+        <v>17.1720430321156</v>
       </c>
       <c r="U5" t="n">
-        <v>4251</v>
+        <v>17.41603467288667</v>
       </c>
       <c r="V5" t="n">
-        <v>3425</v>
+        <v>19.23932125681082</v>
       </c>
       <c r="W5" t="n">
-        <v>4653</v>
+        <v>21.69126408233197</v>
       </c>
       <c r="X5" t="n">
-        <v>3815</v>
+        <v>18.58711822644857</v>
       </c>
       <c r="Y5" t="n">
-        <v>3823</v>
+        <v>17.72517695859977</v>
       </c>
       <c r="Z5" t="n">
-        <v>4247</v>
+        <v>20.54018541850262</v>
       </c>
       <c r="AA5" t="n">
-        <v>4227</v>
+        <v>20.60305013933928</v>
       </c>
       <c r="AB5" t="n">
-        <v>3628</v>
+        <v>18.43079190766406</v>
       </c>
       <c r="AC5" t="n">
-        <v>4895</v>
+        <v>20.30106936928892</v>
       </c>
       <c r="AD5" t="n">
-        <v>3962</v>
+        <v>19.48602767962309</v>
       </c>
       <c r="AE5" t="n">
         <v>3</v>
       </c>
       <c r="AF5" t="n">
-        <v>381.6885969707129</v>
+        <v>1.787373374084986</v>
       </c>
       <c r="AG5" t="n">
-        <v>4233.766666666666</v>
+        <v>19.34183319138723</v>
       </c>
       <c r="AH5" t="n">
-        <v>4615.455263637379</v>
+        <v>21.12920656547222</v>
       </c>
       <c r="AI5" t="n">
-        <v>3852.078069695954</v>
+        <v>17.55445981730225</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4181</v>
+        <v>18.24715716474397</v>
       </c>
       <c r="B6" t="n">
-        <v>4093</v>
+        <v>24.11572434777188</v>
       </c>
       <c r="C6" t="n">
-        <v>4544</v>
+        <v>21.51814649582242</v>
       </c>
       <c r="D6" t="n">
-        <v>4382</v>
+        <v>20.97527085786864</v>
       </c>
       <c r="E6" t="n">
-        <v>4308</v>
+        <v>19.31850531830228</v>
       </c>
       <c r="F6" t="n">
-        <v>4723</v>
+        <v>18.3925006495516</v>
       </c>
       <c r="G6" t="n">
-        <v>4465</v>
+        <v>18.31032418533793</v>
       </c>
       <c r="H6" t="n">
-        <v>4113</v>
+        <v>17.26399958152511</v>
       </c>
       <c r="I6" t="n">
-        <v>4022</v>
+        <v>18.40165164814722</v>
       </c>
       <c r="J6" t="n">
-        <v>4638</v>
+        <v>24.97149802907902</v>
       </c>
       <c r="K6" t="n">
-        <v>4480</v>
+        <v>16.58562420547186</v>
       </c>
       <c r="L6" t="n">
-        <v>4177</v>
+        <v>19.80839537482343</v>
       </c>
       <c r="M6" t="n">
-        <v>4407</v>
+        <v>20.22966616817751</v>
       </c>
       <c r="N6" t="n">
-        <v>4062</v>
+        <v>19.87355750127141</v>
       </c>
       <c r="O6" t="n">
-        <v>4535</v>
+        <v>19.46808365225387</v>
       </c>
       <c r="P6" t="n">
-        <v>4673</v>
+        <v>19.81450063494793</v>
       </c>
       <c r="Q6" t="n">
-        <v>5175</v>
+        <v>19.94511666875931</v>
       </c>
       <c r="R6" t="n">
-        <v>4890</v>
+        <v>18.23709341917726</v>
       </c>
       <c r="S6" t="n">
-        <v>4708</v>
+        <v>18.51953949695093</v>
       </c>
       <c r="T6" t="n">
-        <v>4588</v>
+        <v>17.1720430321156</v>
       </c>
       <c r="U6" t="n">
-        <v>4422</v>
+        <v>17.41603467288667</v>
       </c>
       <c r="V6" t="n">
-        <v>3480</v>
+        <v>19.23932125681082</v>
       </c>
       <c r="W6" t="n">
-        <v>4704</v>
+        <v>21.69126408233197</v>
       </c>
       <c r="X6" t="n">
-        <v>3842</v>
+        <v>18.58711822644857</v>
       </c>
       <c r="Y6" t="n">
-        <v>3970</v>
+        <v>17.72517695859977</v>
       </c>
       <c r="Z6" t="n">
-        <v>4247</v>
+        <v>20.66687713950506</v>
       </c>
       <c r="AA6" t="n">
-        <v>4432</v>
+        <v>20.81139369691001</v>
       </c>
       <c r="AB6" t="n">
-        <v>3748</v>
+        <v>18.43079190766406</v>
       </c>
       <c r="AC6" t="n">
-        <v>4987</v>
+        <v>20.51468108131606</v>
       </c>
       <c r="AD6" t="n">
-        <v>3990</v>
+        <v>20.04319496260272</v>
       </c>
       <c r="AE6" t="n">
         <v>4</v>
       </c>
       <c r="AF6" t="n">
-        <v>378.7361377911613</v>
+        <v>1.895235346883117</v>
       </c>
       <c r="AG6" t="n">
-        <v>4366.2</v>
+        <v>19.54314174723916</v>
       </c>
       <c r="AH6" t="n">
-        <v>4744.936137791161</v>
+        <v>21.43837709412227</v>
       </c>
       <c r="AI6" t="n">
-        <v>3987.463862208839</v>
+        <v>17.64790640035604</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4277</v>
+        <v>18.24715716474397</v>
       </c>
       <c r="B7" t="n">
-        <v>4351</v>
+        <v>24.11572434777188</v>
       </c>
       <c r="C7" t="n">
-        <v>4544</v>
+        <v>21.75930225020698</v>
       </c>
       <c r="D7" t="n">
-        <v>4382</v>
+        <v>20.97527085786864</v>
       </c>
       <c r="E7" t="n">
-        <v>4320</v>
+        <v>19.31850531830228</v>
       </c>
       <c r="F7" t="n">
-        <v>4723</v>
+        <v>18.55143280016558</v>
       </c>
       <c r="G7" t="n">
-        <v>4465</v>
+        <v>18.31032418533793</v>
       </c>
       <c r="H7" t="n">
-        <v>4196</v>
+        <v>17.26399958152511</v>
       </c>
       <c r="I7" t="n">
-        <v>4022</v>
+        <v>18.40165164814722</v>
       </c>
       <c r="J7" t="n">
-        <v>4716</v>
+        <v>24.99781360979429</v>
       </c>
       <c r="K7" t="n">
-        <v>4513</v>
+        <v>17.52365036406921</v>
       </c>
       <c r="L7" t="n">
-        <v>4209</v>
+        <v>19.80839537482343</v>
       </c>
       <c r="M7" t="n">
-        <v>4426</v>
+        <v>20.48694855613411</v>
       </c>
       <c r="N7" t="n">
-        <v>4062</v>
+        <v>20.83643585132653</v>
       </c>
       <c r="O7" t="n">
-        <v>4595</v>
+        <v>19.46808365225387</v>
       </c>
       <c r="P7" t="n">
-        <v>4673</v>
+        <v>20.25413171522222</v>
       </c>
       <c r="Q7" t="n">
-        <v>5253</v>
+        <v>22.97502325199779</v>
       </c>
       <c r="R7" t="n">
-        <v>5018</v>
+        <v>18.28839422726958</v>
       </c>
       <c r="S7" t="n">
-        <v>4725</v>
+        <v>18.5823023631367</v>
       </c>
       <c r="T7" t="n">
-        <v>4651</v>
+        <v>17.2294099994053</v>
       </c>
       <c r="U7" t="n">
-        <v>4422</v>
+        <v>17.41603467288667</v>
       </c>
       <c r="V7" t="n">
-        <v>3906</v>
+        <v>19.23932125681082</v>
       </c>
       <c r="W7" t="n">
-        <v>4731</v>
+        <v>21.69126408233197</v>
       </c>
       <c r="X7" t="n">
-        <v>3878</v>
+        <v>18.58711822644857</v>
       </c>
       <c r="Y7" t="n">
-        <v>4006</v>
+        <v>17.72517695859977</v>
       </c>
       <c r="Z7" t="n">
-        <v>4247</v>
+        <v>20.93237580590805</v>
       </c>
       <c r="AA7" t="n">
-        <v>4598</v>
+        <v>20.81139369691001</v>
       </c>
       <c r="AB7" t="n">
-        <v>3840</v>
+        <v>18.43079190766406</v>
       </c>
       <c r="AC7" t="n">
-        <v>5106</v>
+        <v>20.51468108131606</v>
       </c>
       <c r="AD7" t="n">
-        <v>4073</v>
+        <v>20.04319496260272</v>
       </c>
       <c r="AE7" t="n">
         <v>5</v>
       </c>
       <c r="AF7" t="n">
-        <v>358.5149382097491</v>
+        <v>1.975912714165818</v>
       </c>
       <c r="AG7" t="n">
-        <v>4430.933333333333</v>
+        <v>19.75951032569938</v>
       </c>
       <c r="AH7" t="n">
-        <v>4789.448271543082</v>
+        <v>21.7354230398652</v>
       </c>
       <c r="AI7" t="n">
-        <v>4072.418395123584</v>
+        <v>17.78359761153356</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4277</v>
+        <v>20.06200882248611</v>
       </c>
       <c r="B8" t="n">
-        <v>4565</v>
+        <v>24.11572434777188</v>
       </c>
       <c r="C8" t="n">
-        <v>4580</v>
+        <v>21.75930225020698</v>
       </c>
       <c r="D8" t="n">
-        <v>4492</v>
+        <v>20.97527085786864</v>
       </c>
       <c r="E8" t="n">
-        <v>4324</v>
+        <v>19.31850531830228</v>
       </c>
       <c r="F8" t="n">
-        <v>4792</v>
+        <v>20.00365843311585</v>
       </c>
       <c r="G8" t="n">
-        <v>4507</v>
+        <v>18.42771717010326</v>
       </c>
       <c r="H8" t="n">
-        <v>4310</v>
+        <v>17.29683661868181</v>
       </c>
       <c r="I8" t="n">
-        <v>4483</v>
+        <v>18.40165164814722</v>
       </c>
       <c r="J8" t="n">
-        <v>4926</v>
+        <v>24.99781360979429</v>
       </c>
       <c r="K8" t="n">
-        <v>4543</v>
+        <v>17.52365036406921</v>
       </c>
       <c r="L8" t="n">
-        <v>4276</v>
+        <v>22.15725081938245</v>
       </c>
       <c r="M8" t="n">
-        <v>4492</v>
+        <v>20.62750334330582</v>
       </c>
       <c r="N8" t="n">
-        <v>4095</v>
+        <v>20.83643585132653</v>
       </c>
       <c r="O8" t="n">
-        <v>4628</v>
+        <v>19.46808365225387</v>
       </c>
       <c r="P8" t="n">
-        <v>4673</v>
+        <v>20.2627514672747</v>
       </c>
       <c r="Q8" t="n">
-        <v>5509</v>
+        <v>22.97502325199779</v>
       </c>
       <c r="R8" t="n">
-        <v>5227</v>
+        <v>18.28839422726958</v>
       </c>
       <c r="S8" t="n">
-        <v>4836</v>
+        <v>18.77015801115278</v>
       </c>
       <c r="T8" t="n">
-        <v>4687</v>
+        <v>17.3668048835852</v>
       </c>
       <c r="U8" t="n">
-        <v>4541</v>
+        <v>17.41603467288667</v>
       </c>
       <c r="V8" t="n">
-        <v>3906</v>
+        <v>19.23932125681082</v>
       </c>
       <c r="W8" t="n">
-        <v>4907</v>
+        <v>21.69126408233197</v>
       </c>
       <c r="X8" t="n">
-        <v>4392</v>
+        <v>18.58711822644857</v>
       </c>
       <c r="Y8" t="n">
-        <v>4115</v>
+        <v>17.72517695859977</v>
       </c>
       <c r="Z8" t="n">
-        <v>4330</v>
+        <v>20.93237580590805</v>
       </c>
       <c r="AA8" t="n">
-        <v>4640</v>
+        <v>20.81139369691001</v>
       </c>
       <c r="AB8" t="n">
-        <v>3888</v>
+        <v>18.43079190766406</v>
       </c>
       <c r="AC8" t="n">
-        <v>5106</v>
+        <v>20.51468108131606</v>
       </c>
       <c r="AD8" t="n">
-        <v>4073</v>
+        <v>20.04319496260272</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>369.6375049389216</v>
+        <v>1.971660899355358</v>
       </c>
       <c r="AG8" t="n">
-        <v>4537.333333333333</v>
+        <v>19.96752991998583</v>
       </c>
       <c r="AH8" t="n">
-        <v>4906.970838272255</v>
+        <v>21.93919081934119</v>
       </c>
       <c r="AI8" t="n">
-        <v>4167.695828394411</v>
+        <v>17.99586902063048</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4332</v>
+        <v>20.06200882248611</v>
       </c>
       <c r="B9" t="n">
-        <v>4628</v>
+        <v>24.11572434777188</v>
       </c>
       <c r="C9" t="n">
-        <v>4627</v>
+        <v>21.75930225020698</v>
       </c>
       <c r="D9" t="n">
-        <v>4555</v>
+        <v>20.97527085786864</v>
       </c>
       <c r="E9" t="n">
-        <v>4389</v>
+        <v>19.31850531830228</v>
       </c>
       <c r="F9" t="n">
-        <v>4792</v>
+        <v>20.00365843311585</v>
       </c>
       <c r="G9" t="n">
-        <v>4507</v>
+        <v>18.42771717010326</v>
       </c>
       <c r="H9" t="n">
-        <v>4310</v>
+        <v>23.34287470154652</v>
       </c>
       <c r="I9" t="n">
-        <v>4542</v>
+        <v>18.40165164814722</v>
       </c>
       <c r="J9" t="n">
-        <v>5000</v>
+        <v>24.99781360979429</v>
       </c>
       <c r="K9" t="n">
-        <v>4543</v>
+        <v>17.52365036406921</v>
       </c>
       <c r="L9" t="n">
-        <v>4373</v>
+        <v>22.15725081938245</v>
       </c>
       <c r="M9" t="n">
-        <v>4492</v>
+        <v>20.62750334330582</v>
       </c>
       <c r="N9" t="n">
-        <v>4095</v>
+        <v>20.83643585132653</v>
       </c>
       <c r="O9" t="n">
-        <v>4742</v>
+        <v>19.47322617282744</v>
       </c>
       <c r="P9" t="n">
-        <v>4673</v>
+        <v>20.79896780365076</v>
       </c>
       <c r="Q9" t="n">
-        <v>5509</v>
+        <v>22.97502325199779</v>
       </c>
       <c r="R9" t="n">
-        <v>5227</v>
+        <v>18.28839422726958</v>
       </c>
       <c r="S9" t="n">
-        <v>4836</v>
+        <v>18.77015801115278</v>
       </c>
       <c r="T9" t="n">
-        <v>4736</v>
+        <v>17.3668048835852</v>
       </c>
       <c r="U9" t="n">
-        <v>4797</v>
+        <v>17.41603467288667</v>
       </c>
       <c r="V9" t="n">
-        <v>3906</v>
+        <v>19.23932125681082</v>
       </c>
       <c r="W9" t="n">
-        <v>4907</v>
+        <v>21.69126408233197</v>
       </c>
       <c r="X9" t="n">
-        <v>4392</v>
+        <v>18.58711822644857</v>
       </c>
       <c r="Y9" t="n">
-        <v>4142</v>
+        <v>17.72517695859977</v>
       </c>
       <c r="Z9" t="n">
-        <v>4366</v>
+        <v>20.93237580590805</v>
       </c>
       <c r="AA9" t="n">
-        <v>4640</v>
+        <v>20.81139369691001</v>
       </c>
       <c r="AB9" t="n">
-        <v>3951</v>
+        <v>18.43079190766406</v>
       </c>
       <c r="AC9" t="n">
-        <v>5331</v>
+        <v>20.74552813584599</v>
       </c>
       <c r="AD9" t="n">
-        <v>4106</v>
+        <v>20.04319496260272</v>
       </c>
       <c r="AE9" t="n">
         <v>7</v>
       </c>
       <c r="AF9" t="n">
-        <v>379.0581552446421</v>
+        <v>2.003028901682654</v>
       </c>
       <c r="AG9" t="n">
-        <v>4581.533333333334</v>
+        <v>20.19480471979731</v>
       </c>
       <c r="AH9" t="n">
-        <v>4960.591488577976</v>
+        <v>22.19783362147997</v>
       </c>
       <c r="AI9" t="n">
-        <v>4202.475178088692</v>
+        <v>18.19177581811466</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4435</v>
+        <v>20.06200882248611</v>
       </c>
       <c r="B10" t="n">
-        <v>4628</v>
+        <v>24.11572434777188</v>
       </c>
       <c r="C10" t="n">
-        <v>4630</v>
+        <v>21.75930225020698</v>
       </c>
       <c r="D10" t="n">
-        <v>4555</v>
+        <v>20.97527085786864</v>
       </c>
       <c r="E10" t="n">
-        <v>4389</v>
+        <v>19.31850531830228</v>
       </c>
       <c r="F10" t="n">
-        <v>4792</v>
+        <v>20.00365843311585</v>
       </c>
       <c r="G10" t="n">
-        <v>4692</v>
+        <v>18.42771717010326</v>
       </c>
       <c r="H10" t="n">
-        <v>4310</v>
+        <v>23.46691100636388</v>
       </c>
       <c r="I10" t="n">
-        <v>4640</v>
+        <v>18.40165164814722</v>
       </c>
       <c r="J10" t="n">
-        <v>5156</v>
+        <v>24.99781360979429</v>
       </c>
       <c r="K10" t="n">
-        <v>4856</v>
+        <v>17.52365036406921</v>
       </c>
       <c r="L10" t="n">
-        <v>4460</v>
+        <v>22.15725081938245</v>
       </c>
       <c r="M10" t="n">
-        <v>4573</v>
+        <v>20.62750334330582</v>
       </c>
       <c r="N10" t="n">
-        <v>4112</v>
+        <v>20.83643585132653</v>
       </c>
       <c r="O10" t="n">
-        <v>4742</v>
+        <v>19.47322617282744</v>
       </c>
       <c r="P10" t="n">
-        <v>4673</v>
+        <v>20.79896780365076</v>
       </c>
       <c r="Q10" t="n">
-        <v>5526</v>
+        <v>22.97502325199779</v>
       </c>
       <c r="R10" t="n">
-        <v>5305</v>
+        <v>18.28839422726958</v>
       </c>
       <c r="S10" t="n">
-        <v>4878</v>
+        <v>18.77015801115278</v>
       </c>
       <c r="T10" t="n">
-        <v>4736</v>
+        <v>17.3668048835852</v>
       </c>
       <c r="U10" t="n">
-        <v>4797</v>
+        <v>17.41603467288667</v>
       </c>
       <c r="V10" t="n">
-        <v>3929</v>
+        <v>19.23932125681082</v>
       </c>
       <c r="W10" t="n">
-        <v>4940</v>
+        <v>21.69126408233197</v>
       </c>
       <c r="X10" t="n">
-        <v>4507</v>
+        <v>18.58711822644857</v>
       </c>
       <c r="Y10" t="n">
-        <v>4142</v>
+        <v>18.07414776782658</v>
       </c>
       <c r="Z10" t="n">
-        <v>4366</v>
+        <v>20.93237580590805</v>
       </c>
       <c r="AA10" t="n">
-        <v>4718</v>
+        <v>21.13856415737403</v>
       </c>
       <c r="AB10" t="n">
-        <v>3951</v>
+        <v>18.43079190766406</v>
       </c>
       <c r="AC10" t="n">
-        <v>5373</v>
+        <v>20.74552813584599</v>
       </c>
       <c r="AD10" t="n">
-        <v>4148</v>
+        <v>20.04319496260272</v>
       </c>
       <c r="AE10" t="n">
         <v>8</v>
       </c>
       <c r="AF10" t="n">
-        <v>389.4967118035108</v>
+        <v>2.00030372971517</v>
       </c>
       <c r="AG10" t="n">
-        <v>4631.966666666666</v>
+        <v>20.22147730561425</v>
       </c>
       <c r="AH10" t="n">
-        <v>5021.463378470177</v>
+        <v>22.22178103532942</v>
       </c>
       <c r="AI10" t="n">
-        <v>4242.469954863155</v>
+        <v>18.22117357589908</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4503</v>
+        <v>20.06200882248611</v>
       </c>
       <c r="B11" t="n">
-        <v>4628</v>
+        <v>24.11572434777188</v>
       </c>
       <c r="C11" t="n">
-        <v>4663</v>
+        <v>21.75930225020698</v>
       </c>
       <c r="D11" t="n">
-        <v>5155</v>
+        <v>20.97527085786864</v>
       </c>
       <c r="E11" t="n">
-        <v>4417</v>
+        <v>20.45130774270285</v>
       </c>
       <c r="F11" t="n">
-        <v>4834</v>
+        <v>20.00365843311585</v>
       </c>
       <c r="G11" t="n">
-        <v>4692</v>
+        <v>18.42771717010326</v>
       </c>
       <c r="H11" t="n">
-        <v>4473</v>
+        <v>23.46691100636388</v>
       </c>
       <c r="I11" t="n">
-        <v>4640</v>
+        <v>18.40165164814722</v>
       </c>
       <c r="J11" t="n">
-        <v>5156</v>
+        <v>24.99781360979429</v>
       </c>
       <c r="K11" t="n">
-        <v>4889</v>
+        <v>17.52365036406921</v>
       </c>
       <c r="L11" t="n">
-        <v>4460</v>
+        <v>22.15725081938245</v>
       </c>
       <c r="M11" t="n">
-        <v>4660</v>
+        <v>20.62750334330582</v>
       </c>
       <c r="N11" t="n">
-        <v>4112</v>
+        <v>20.83643585132653</v>
       </c>
       <c r="O11" t="n">
-        <v>4931</v>
+        <v>19.47322617282744</v>
       </c>
       <c r="P11" t="n">
-        <v>4673</v>
+        <v>20.79896780365076</v>
       </c>
       <c r="Q11" t="n">
-        <v>5526</v>
+        <v>22.97502325199779</v>
       </c>
       <c r="R11" t="n">
-        <v>5383</v>
+        <v>18.74509387679048</v>
       </c>
       <c r="S11" t="n">
-        <v>4914</v>
+        <v>19.04973374451911</v>
       </c>
       <c r="T11" t="n">
-        <v>4755</v>
+        <v>17.3668048835852</v>
       </c>
       <c r="U11" t="n">
-        <v>4797</v>
+        <v>17.41603467288667</v>
       </c>
       <c r="V11" t="n">
-        <v>4085</v>
+        <v>19.23932125681082</v>
       </c>
       <c r="W11" t="n">
-        <v>4940</v>
+        <v>21.69126408233197</v>
       </c>
       <c r="X11" t="n">
-        <v>4507</v>
+        <v>18.58711822644857</v>
       </c>
       <c r="Y11" t="n">
-        <v>4159</v>
+        <v>18.07414776782658</v>
       </c>
       <c r="Z11" t="n">
-        <v>4366</v>
+        <v>20.93237580590805</v>
       </c>
       <c r="AA11" t="n">
-        <v>4718</v>
+        <v>21.13856415737403</v>
       </c>
       <c r="AB11" t="n">
-        <v>3951</v>
+        <v>18.43079190766406</v>
       </c>
       <c r="AC11" t="n">
-        <v>5373</v>
+        <v>20.74552813584599</v>
       </c>
       <c r="AD11" t="n">
-        <v>4148</v>
+        <v>20.04319496260272</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
       </c>
       <c r="AF11" t="n">
-        <v>394.0729496618265</v>
+        <v>1.972796052402111</v>
       </c>
       <c r="AG11" t="n">
-        <v>4683.6</v>
+        <v>20.28377989919051</v>
       </c>
       <c r="AH11" t="n">
-        <v>5077.672949661827</v>
+        <v>22.25657595159262</v>
       </c>
       <c r="AI11" t="n">
-        <v>4289.527050338173</v>
+        <v>18.3109838467884</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4511</v>
+        <v>20.06200882248611</v>
       </c>
       <c r="B12" t="n">
-        <v>4670</v>
+        <v>24.11572434777188</v>
       </c>
       <c r="C12" t="n">
-        <v>4663</v>
+        <v>21.75930225020698</v>
       </c>
       <c r="D12" t="n">
-        <v>5192</v>
+        <v>20.97527085786864</v>
       </c>
       <c r="E12" t="n">
-        <v>4417</v>
+        <v>20.45130774270285</v>
       </c>
       <c r="F12" t="n">
-        <v>4834</v>
+        <v>20.00365843311585</v>
       </c>
       <c r="G12" t="n">
-        <v>4740</v>
+        <v>18.42771717010326</v>
       </c>
       <c r="H12" t="n">
-        <v>4515</v>
+        <v>23.46691100636388</v>
       </c>
       <c r="I12" t="n">
-        <v>4725</v>
+        <v>22.71545740206697</v>
       </c>
       <c r="J12" t="n">
-        <v>5156</v>
+        <v>24.99781360979429</v>
       </c>
       <c r="K12" t="n">
-        <v>4906</v>
+        <v>17.55264195733463</v>
       </c>
       <c r="L12" t="n">
-        <v>4460</v>
+        <v>22.15725081938245</v>
       </c>
       <c r="M12" t="n">
-        <v>4857</v>
+        <v>20.62750334330582</v>
       </c>
       <c r="N12" t="n">
-        <v>4112</v>
+        <v>20.83643585132653</v>
       </c>
       <c r="O12" t="n">
-        <v>5063</v>
+        <v>19.47322617282744</v>
       </c>
       <c r="P12" t="n">
-        <v>4727</v>
+        <v>20.79896780365076</v>
       </c>
       <c r="Q12" t="n">
-        <v>5526</v>
+        <v>22.97502325199779</v>
       </c>
       <c r="R12" t="n">
-        <v>5383</v>
+        <v>18.74509387679048</v>
       </c>
       <c r="S12" t="n">
-        <v>4914</v>
+        <v>19.04973374451911</v>
       </c>
       <c r="T12" t="n">
-        <v>4755</v>
+        <v>17.70744410236067</v>
       </c>
       <c r="U12" t="n">
-        <v>4797</v>
+        <v>17.41603467288667</v>
       </c>
       <c r="V12" t="n">
-        <v>4100</v>
+        <v>19.23932125681082</v>
       </c>
       <c r="W12" t="n">
-        <v>5027</v>
+        <v>21.69126408233197</v>
       </c>
       <c r="X12" t="n">
-        <v>4507</v>
+        <v>18.58711822644857</v>
       </c>
       <c r="Y12" t="n">
-        <v>4159</v>
+        <v>18.3369881702243</v>
       </c>
       <c r="Z12" t="n">
-        <v>4366</v>
+        <v>20.93237580590805</v>
       </c>
       <c r="AA12" t="n">
-        <v>4718</v>
+        <v>21.13856415737403</v>
       </c>
       <c r="AB12" t="n">
-        <v>4283</v>
+        <v>18.43079190766406</v>
       </c>
       <c r="AC12" t="n">
-        <v>5373</v>
+        <v>20.88882617302917</v>
       </c>
       <c r="AD12" t="n">
-        <v>4148</v>
+        <v>20.04319496260272</v>
       </c>
       <c r="AE12" t="n">
         <v>10</v>
       </c>
       <c r="AF12" t="n">
-        <v>383.2936871052178</v>
+        <v>1.959969642705475</v>
       </c>
       <c r="AG12" t="n">
-        <v>4720.133333333333</v>
+        <v>20.45343239937523</v>
       </c>
       <c r="AH12" t="n">
-        <v>5103.427020438551</v>
+        <v>22.4134020420807</v>
       </c>
       <c r="AI12" t="n">
-        <v>4336.839646228115</v>
+        <v>18.49346275666975</v>
       </c>
     </row>
   </sheetData>
